--- a/edd_file_importer/tests/files/generic_import/generic_import.xlsx
+++ b/edd_file_importer/tests/files/generic_import/generic_import.xlsx
@@ -1,19 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
   <workbookPr date1904="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mark.forrer/Documents/code/edd/edd_file_importer/tests/files/generic_import/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{825E3DB7-0445-4546-B29E-72419ED01950}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="51220" yWindow="5920" windowWidth="15960" windowHeight="18080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1" sheetId="1" r:id="rId4"/>
-    <sheet name="Sheet 2" sheetId="2" r:id="rId5"/>
+    <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet 2" sheetId="2" r:id="rId2"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="24">
   <si>
     <t>Hand-scrawled research notes</t>
   </si>
@@ -42,9 +50,6 @@
     <t>Tyrion</t>
   </si>
   <si>
-    <t xml:space="preserve">Limonene </t>
-  </si>
-  <si>
     <t>g/L</t>
   </si>
   <si>
@@ -57,9 +62,6 @@
     <t>Jaime</t>
   </si>
   <si>
-    <t>Mevalonate</t>
-  </si>
-  <si>
     <t>Line Name</t>
   </si>
   <si>
@@ -79,36 +81,49 @@
   </si>
   <si>
     <t>A</t>
+  </si>
+  <si>
+    <t>R-Mevalonate</t>
+  </si>
+  <si>
+    <t>Measured Quantity</t>
+  </si>
+  <si>
+    <t>CID:440917</t>
+  </si>
+  <si>
+    <t>CID:5288798</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="0" formatCode="General"/>
-  </numFmts>
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Helvetica Neue"/>
-    </font>
-    <font>
-      <sz val="13"/>
-      <color indexed="8"/>
-      <name val="Helvetica Neue"/>
-    </font>
-    <font>
-      <b val="1"/>
+      <b/>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -137,7 +152,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -222,21 +237,6 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="11"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
-        <color indexed="11"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color indexed="10"/>
       </left>
       <right style="thin">
@@ -295,123 +295,220 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="11"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+  <cellXfs count="30">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="11" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffbdc0bf"/>
-      <rgbColor rgb="ffa5a5a5"/>
-      <rgbColor rgb="ff3f3f3f"/>
-      <rgbColor rgb="ffdbdbdb"/>
-      <rgbColor rgb="ffffffff"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFBDC0BF"/>
+      <rgbColor rgb="FFA5A5A5"/>
+      <rgbColor rgb="FF3F3F3F"/>
+      <rgbColor rgb="FFDBDBDB"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Blank">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Blank">
   <a:themeElements>
     <a:clrScheme name="Blank">
       <a:dk1>
@@ -613,7 +710,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -632,7 +729,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -662,7 +759,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -688,7 +785,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -714,7 +811,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -740,7 +837,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -766,7 +863,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -792,7 +889,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -818,7 +915,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -844,7 +941,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -870,7 +967,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -883,9 +980,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -902,7 +1005,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -921,7 +1024,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -947,7 +1050,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -973,7 +1076,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -999,7 +1102,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1025,7 +1128,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1051,7 +1154,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1077,7 +1180,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1103,7 +1206,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1129,7 +1232,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1155,7 +1258,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1168,9 +1271,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -1184,7 +1293,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1203,7 +1312,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1233,7 +1342,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1259,7 +1368,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1285,7 +1394,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1311,7 +1420,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1337,7 +1446,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1363,7 +1472,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1389,7 +1498,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1415,7 +1524,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1441,7 +1550,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1454,40 +1563,46 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:IX5"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="15.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18.3516" style="1" customWidth="1"/>
-    <col min="4" max="4" width="18.1719" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.3516" style="1" customWidth="1"/>
-    <col min="6" max="6" width="16.3516" style="1" customWidth="1"/>
-    <col min="7" max="7" width="16.3516" style="1" customWidth="1"/>
-    <col min="8" max="256" width="16.3516" style="1" customWidth="1"/>
+    <col min="1" max="2" width="15.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="18.1640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="18.1640625" style="21" customWidth="1"/>
+    <col min="6" max="257" width="16.33203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="26.7" customHeight="1">
+    <row r="1" spans="1:258" ht="26.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2"/>
-      <c r="B1" t="s" s="3">
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="2"/>
@@ -1495,84 +1610,101 @@
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="IX1" s="1"/>
     </row>
-    <row r="2" ht="14.7" customHeight="1">
+    <row r="2" spans="1:258" ht="14.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="4"/>
-      <c r="B2" t="s" s="5">
+      <c r="B2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C2" t="s" s="5">
+      <c r="C2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D2" t="s" s="5">
+      <c r="D2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E2" t="s" s="5">
+      <c r="E2" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F2" t="s" s="5">
+      <c r="G2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G2" t="s" s="5">
+      <c r="H2" s="5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" ht="20.25" customHeight="1">
+    <row r="3" spans="1:258" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="6"/>
-      <c r="B3" t="s" s="7">
+      <c r="B3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C3" t="s" s="8">
+      <c r="C3" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D3" t="s" s="9">
+      <c r="D3" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="9">
+        <v>1</v>
+      </c>
+      <c r="G3" s="9">
+        <v>8</v>
+      </c>
+      <c r="H3" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="10">
-        <v>1</v>
-      </c>
-      <c r="F3" s="10">
-        <v>8</v>
-      </c>
-      <c r="G3" t="s" s="11">
+    </row>
+    <row r="4" spans="1:258" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="11"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="13" t="s">
         <v>10</v>
       </c>
+      <c r="D4" s="14"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="16"/>
     </row>
-    <row r="4" ht="20.05" customHeight="1">
-      <c r="A4" s="12"/>
-      <c r="B4" s="13"/>
-      <c r="C4" t="s" s="14">
+    <row r="5" spans="1:258" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="11"/>
+      <c r="B5" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="15"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="17"/>
-    </row>
-    <row r="5" ht="20.05" customHeight="1">
-      <c r="A5" s="12"/>
-      <c r="B5" t="s" s="18">
+      <c r="C5" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="C5" t="s" s="19">
-        <v>13</v>
-      </c>
-      <c r="D5" t="s" s="20">
-        <v>14</v>
-      </c>
-      <c r="E5" s="21">
+      <c r="D5" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="19">
         <v>2</v>
       </c>
-      <c r="F5" s="21">
+      <c r="G5" s="19">
         <v>24</v>
       </c>
-      <c r="G5" t="s" s="22">
-        <v>10</v>
+      <c r="H5" s="20" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <hyperlinks>
+    <hyperlink ref="D3" r:id="rId1" xr:uid="{A8502E29-95B2-1C4E-8831-CE00A56EBF54}"/>
+    <hyperlink ref="D5" r:id="rId2" xr:uid="{5FD4B104-A6A3-984D-82CC-5D6B108A6AC0}"/>
+  </hyperlinks>
+  <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.27777800000000002" footer="0.27777800000000002"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -1580,63 +1712,61 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:IV2"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
-      <pane topLeftCell="B2" xSplit="1" ySplit="1" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="13.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="14" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="16.3516" style="23" customWidth="1"/>
-    <col min="2" max="2" width="16.3516" style="23" customWidth="1"/>
-    <col min="3" max="3" width="16.3516" style="23" customWidth="1"/>
-    <col min="4" max="4" width="16.3516" style="23" customWidth="1"/>
-    <col min="5" max="5" width="16.3516" style="23" customWidth="1"/>
-    <col min="6" max="256" width="16.3516" style="23" customWidth="1"/>
+    <col min="1" max="256" width="16.33203125" style="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.7" customHeight="1">
-      <c r="A1" t="s" s="3">
+    <row r="1" spans="1:5" ht="14.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B1" t="s" s="3">
+      <c r="D1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C1" t="s" s="3">
+      <c r="E1" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="14.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="D1" t="s" s="3">
+      <c r="B2" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="E1" t="s" s="3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" ht="14.7" customHeight="1">
-      <c r="A2" t="s" s="18">
+      <c r="C2" s="23">
+        <v>1</v>
+      </c>
+      <c r="D2" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="B2" t="s" s="24">
-        <v>20</v>
-      </c>
-      <c r="C2" s="25">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s" s="26">
-        <v>21</v>
-      </c>
-      <c r="E2" s="25">
+      <c r="E2" s="23">
         <v>3</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
